--- a/Data/RSPB_data_filtered/RSPB_Data_2004-05_DEC04.xlsx
+++ b/Data/RSPB_data_filtered/RSPB_Data_2004-05_DEC04.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\injg1\Desktop\RSPB Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_CURRENT\SNH_Moray_Firth\SNH_Moray_Firth\Data\RSPB_data_filtered\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11369DB4-F542-4C8E-A3AD-50FE6D269AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="7770"/>
+    <workbookView xWindow="2835" yWindow="4140" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outer_Dornoch_Firth" sheetId="6" r:id="rId1"/>
     <sheet name="Inverness_Beauly_Firth" sheetId="10" r:id="rId2"/>
     <sheet name="Nairn_Culbin_Bars" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
   <si>
     <t>Inver</t>
   </si>
@@ -140,15 +151,6 @@
     <t>Ardersier</t>
   </si>
   <si>
-    <t>Nairn</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Culbin</t>
-  </si>
-  <si>
     <t>Cormorant/Shag  sp.</t>
   </si>
   <si>
@@ -228,9 +230,6 @@
   </si>
   <si>
     <t>Dave Butterfield</t>
-  </si>
-  <si>
-    <t>Calm</t>
   </si>
   <si>
     <t>Chanonry Point</t>
@@ -293,20 +292,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="10"/>
-      <name val="Palatino"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Palatino"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Palatino"/>
@@ -320,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -396,26 +383,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -437,35 +404,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -477,7 +428,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,7 +435,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -838,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -851,233 +801,221 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="M1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="P1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="B2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="C2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="D2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="E2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="F2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="G2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="H2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="I2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="J2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="K2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="L2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="M2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="N2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="O2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="P2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>38342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.40625</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="C2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="D2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="E2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="F2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="G2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="H2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="I2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="J2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="K2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="L2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="M2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="N2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="O2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="P2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>38342</v>
-      </c>
-      <c r="R2" s="17">
-        <v>38338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0.40625</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="R3" s="14">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1127,13 +1065,10 @@
       <c r="Q5">
         <v>7</v>
       </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1183,120 +1118,114 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1328,11 +1257,8 @@
       <c r="Q9" s="1">
         <v>2</v>
       </c>
-      <c r="R9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1354,9 +1280,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1388,11 +1313,8 @@
       <c r="Q11" s="1">
         <v>1</v>
       </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1412,9 +1334,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,9 +1355,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1458,9 +1378,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1482,9 +1401,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1510,9 +1428,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,9 +1449,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1570,11 +1486,8 @@
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1614,13 +1527,10 @@
       <c r="Q19" s="1">
         <v>11</v>
       </c>
-      <c r="R19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1638,9 +1548,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1660,9 +1569,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,11 +1590,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1720,9 +1625,8 @@
       <c r="Q23" s="1">
         <v>27</v>
       </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1742,9 +1646,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1770,9 +1673,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1796,9 +1698,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1818,9 +1719,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,9 +1742,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1864,11 +1763,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1898,9 +1794,8 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1930,9 +1825,8 @@
         <v>2</v>
       </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,11 +1846,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1988,11 +1879,8 @@
       <c r="Q33" s="1">
         <v>8</v>
       </c>
-      <c r="R33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2022,9 +1910,8 @@
       <c r="Q34" s="1">
         <v>1</v>
       </c>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -2044,9 +1931,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -2066,9 +1952,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -2088,13 +1973,10 @@
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -2128,13 +2010,10 @@
       <c r="Q38" s="1">
         <v>4</v>
       </c>
-      <c r="R38" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>27</v>
@@ -2174,11 +2053,10 @@
       <c r="Q39" s="1">
         <v>130</v>
       </c>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
@@ -2208,11 +2086,10 @@
         <v>19</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2236,9 +2113,8 @@
         <v>3</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2256,9 +2132,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2276,9 +2151,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2296,9 +2170,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2316,9 +2189,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -2336,9 +2208,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2348,7 +2219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,114 +2233,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="N1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="O1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13">
         <v>38336</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>38337</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="13">
         <v>38338</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>38339</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>38340</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="13">
         <v>38341</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="13">
         <v>38342</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="13">
         <v>38343</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="13">
         <v>38344</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="13">
         <v>38336</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="13">
         <v>38337</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="13">
         <v>38338</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="13">
         <v>38339</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="13">
         <v>38340</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="13">
         <v>38341</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="13">
         <v>38342</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="13">
         <v>38343</v>
       </c>
     </row>
@@ -2477,336 +2348,336 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>0.57638888888888895</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>0.5625</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>0.54861111111111105</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>0.54513888888888895</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="9">
         <v>0.53819444444444442</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="10">
         <v>0.51388888888888895</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="8">
         <v>0.49652777777777773</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="8">
         <v>0.4826388888888889</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="9">
         <v>0.46875</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="8">
         <v>0.44444444444444442</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="9">
         <v>0.42708333333333331</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="8">
         <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>1</v>
-      </c>
-      <c r="O5" s="22">
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
+        <v>60</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <v>1</v>
-      </c>
-      <c r="M6" s="22">
-        <v>1</v>
-      </c>
-      <c r="N6" s="22">
-        <v>1</v>
-      </c>
-      <c r="O6" s="22">
-        <v>1</v>
-      </c>
-      <c r="P6" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>1</v>
-      </c>
-      <c r="R6" s="22">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>1</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>1</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22">
+        <v>62</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
@@ -3505,7 +3376,7 @@
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3529,7 +3400,7 @@
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3559,7 +3430,7 @@
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3589,7 +3460,7 @@
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3617,7 +3488,7 @@
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3747,11 +3618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3760,857 +3631,617 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="C2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="D2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="E2" s="13">
+        <v>38342</v>
+      </c>
+      <c r="F2" s="13">
+        <v>38342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="C4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="15">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="20">
-        <v>38342</v>
-      </c>
-      <c r="C3" s="20">
-        <v>38342</v>
-      </c>
-      <c r="D3" s="20">
-        <v>38342</v>
-      </c>
-      <c r="E3" s="20">
-        <v>38342</v>
-      </c>
-      <c r="F3" s="20">
-        <v>38342</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="22">
-        <v>6</v>
-      </c>
-      <c r="C6" s="22">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
-        <v>6</v>
-      </c>
-      <c r="E6" s="22">
-        <v>6</v>
-      </c>
-      <c r="F6" s="22">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="22">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>218</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>218</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>64</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="E22" s="1">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>64</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="1">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="C24" s="1">
+        <v>220</v>
+      </c>
+      <c r="D24" s="2">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1">
+        <v>330</v>
+      </c>
+      <c r="F24" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D25" s="2">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1">
-        <v>330</v>
+        <v>2700</v>
       </c>
       <c r="F25" s="2">
-        <v>210</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>550</v>
-      </c>
-      <c r="D26" s="2">
-        <v>190</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F26" s="2">
-        <v>150</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>47</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>47</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="1">
-        <v>650</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3">
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="1">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+      <c r="F37" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>24</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
